--- a/data/trans_dic/Predimed_R3-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/Predimed_R3-Estudios-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>16,03%</t>
+          <t>16,15%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>16,47%</t>
+          <t>16,35%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,3%</t>
+          <t>16,27%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,26; 19,53</t>
+          <t>13,38; 19,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,25; 19,84</t>
+          <t>14,15; 19,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,44; 18,51</t>
+          <t>14,51; 18,4</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,47%</t>
+          <t>14,15%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>18,09%</t>
+          <t>17,82%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>16,82%</t>
+          <t>15,98%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,64; 17,46</t>
+          <t>9,65; 16,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,97; 19,96</t>
+          <t>13,15; 22,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,05; 18,31</t>
+          <t>12,8; 18,57</t>
         </is>
       </c>
     </row>
@@ -661,12 +661,12 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>22,13%</t>
+          <t>22,09%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>22,12%</t>
+          <t>22,1%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>18,47; 26,07</t>
+          <t>18,33; 26,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,38; 25,36</t>
+          <t>19,37; 25,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>19,85; 24,59</t>
+          <t>19,86; 24,6</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,92%</t>
+          <t>15,97%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18,51%</t>
+          <t>18,3%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17,76%</t>
+          <t>17,18%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,33; 18,38</t>
+          <t>12,35; 17,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,43; 19,97</t>
+          <t>15,21; 20,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,59; 18,84</t>
+          <t>14,77; 18,98</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/Predimed_R3-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/Predimed_R3-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,38; 19,71</t>
+          <t>13,26; 19,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,15; 19,16</t>
+          <t>14,14; 19,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,51; 18,4</t>
+          <t>14,41; 18,58</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,65; 16,82</t>
+          <t>9,9; 16,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,15; 22,18</t>
+          <t>13,6; 21,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,8; 18,57</t>
+          <t>12,79; 18,49</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>18,33; 26,06</t>
+          <t>18,41; 26,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,37; 25,33</t>
+          <t>19,35; 24,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>19,86; 24,6</t>
+          <t>19,79; 24,6</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,35; 17,79</t>
+          <t>12,26; 17,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,21; 20,98</t>
+          <t>15,22; 20,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,77; 18,98</t>
+          <t>14,74; 18,89</t>
         </is>
       </c>
     </row>
@@ -760,4 +761,388 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con una adherencia alta a la dieta mediterránea</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>75228</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>114400</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>189628</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>61775; 89599</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>98930; 132969</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>167903; 216561</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>571</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>301946</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>378592</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>680538</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>211121; 354773</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>289001; 465336</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>544740; 787183</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>136905</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>139438</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>276344</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>114064; 162703</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>122120; 156962</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>247445; 307718</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>985</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1555</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>514079</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>632430</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1146509</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>394760; 577128</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>525812; 724648</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>983555; 1260442</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>